--- a/koordinatalar.xlsx
+++ b/koordinatalar.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B389"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,10 +398,10 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>41.311081</v>
+        <v>40.992988</v>
       </c>
       <c r="B3">
-        <v>69.240562</v>
+        <v>71.652181</v>
       </c>
     </row>
     <row r="4">
@@ -414,26 +414,26 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>41.311081</v>
+        <v>37.242634</v>
       </c>
       <c r="B5">
-        <v>69.240562</v>
+        <v>67.42006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>41.311081</v>
+        <v>41.324906</v>
       </c>
       <c r="B6">
-        <v>69.240562</v>
+        <v>69.173765</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>37.242634</v>
+        <v>41.532611</v>
       </c>
       <c r="B7">
-        <v>67.42006</v>
+        <v>60.666152</v>
       </c>
     </row>
     <row r="8">
@@ -446,18 +446,18 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>37.247719</v>
+        <v>41.311081</v>
       </c>
       <c r="B9">
-        <v>67.307268</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.991956</v>
+        <v>41.311081</v>
       </c>
       <c r="B10">
-        <v>71.647393</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="11">
@@ -470,10 +470,10 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>37.227847</v>
+        <v>41.047596</v>
       </c>
       <c r="B12">
-        <v>67.272453</v>
+        <v>71.668091</v>
       </c>
     </row>
     <row r="13">
@@ -502,10 +502,10 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>41.324906</v>
+        <v>40.216887</v>
       </c>
       <c r="B16">
-        <v>69.173765</v>
+        <v>71.735146</v>
       </c>
     </row>
     <row r="17">
@@ -518,10 +518,10 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>37.242634</v>
+        <v>37.227847</v>
       </c>
       <c r="B18">
-        <v>67.42006</v>
+        <v>67.272453</v>
       </c>
     </row>
     <row r="19">
@@ -542,50 +542,50 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>40.992988</v>
+        <v>41.311081</v>
       </c>
       <c r="B21">
-        <v>71.652181</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>41.311081</v>
+        <v>40.964287</v>
       </c>
       <c r="B22">
-        <v>69.240562</v>
+        <v>71.691003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>41.047596</v>
+        <v>41.355522</v>
       </c>
       <c r="B23">
-        <v>71.668091</v>
+        <v>69.252841</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>41.355522</v>
+        <v>40.991438</v>
       </c>
       <c r="B24">
-        <v>69.252841</v>
+        <v>71.22969</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>40.964287</v>
+        <v>41.311081</v>
       </c>
       <c r="B25">
-        <v>71.691003</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>41.311081</v>
+        <v>37.239681</v>
       </c>
       <c r="B26">
-        <v>69.240562</v>
+        <v>67.309968</v>
       </c>
     </row>
     <row r="27">
@@ -598,202 +598,202 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>41.311081</v>
+        <v>37.247719</v>
       </c>
       <c r="B28">
-        <v>69.240562</v>
+        <v>67.307268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>37.239681</v>
+        <v>37.242634</v>
       </c>
       <c r="B29">
-        <v>67.309968</v>
+        <v>67.42006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>41.532611</v>
+        <v>41.311081</v>
       </c>
       <c r="B30">
-        <v>60.666152</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>41.311081</v>
+        <v>41.034175</v>
       </c>
       <c r="B31">
-        <v>69.240562</v>
+        <v>71.61485</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>40.991438</v>
+        <v>40.991956</v>
       </c>
       <c r="B32">
-        <v>71.22969</v>
+        <v>71.647393</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>41.034175</v>
+        <v>39.606595</v>
       </c>
       <c r="B33">
-        <v>71.61485</v>
+        <v>66.974434</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>40.216887</v>
+        <v>37.18682972025627</v>
       </c>
       <c r="B34">
-        <v>71.735146</v>
+        <v>67.29315161412323</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>39.606595</v>
+        <v>41.332743</v>
       </c>
       <c r="B35">
-        <v>66.974434</v>
+        <v>69.219009</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>37.18682972025627</v>
+        <v>41.311081</v>
       </c>
       <c r="B36">
-        <v>67.29315161412323</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>37.242634</v>
+        <v>41.291374</v>
       </c>
       <c r="B37">
-        <v>67.42006</v>
+        <v>69.223986</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>41.332743</v>
+        <v>42.154258</v>
       </c>
       <c r="B38">
-        <v>69.219009</v>
+        <v>63.56321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>41.291374</v>
+        <v>40.534379</v>
       </c>
       <c r="B39">
-        <v>69.223986</v>
+        <v>70.952818</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>42.154258</v>
+        <v>41.569345</v>
       </c>
       <c r="B40">
-        <v>63.56321</v>
+        <v>64.19299</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>41.569345</v>
+        <v>41.213918</v>
       </c>
       <c r="B41">
-        <v>64.19299</v>
+        <v>69.208974</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41.213918</v>
+        <v>41.488508</v>
       </c>
       <c r="B42">
-        <v>69.208974</v>
+        <v>69.572531</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>41.488508</v>
+        <v>39.972377</v>
       </c>
       <c r="B43">
-        <v>69.572531</v>
+        <v>65.779509</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>39.972377</v>
+        <v>40.100365</v>
       </c>
       <c r="B44">
-        <v>65.779509</v>
+        <v>67.840467</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>40.100365</v>
+        <v>40.620694</v>
       </c>
       <c r="B45">
-        <v>67.840467</v>
+        <v>68.712907</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>40.620694</v>
+        <v>40.859885</v>
       </c>
       <c r="B46">
-        <v>68.712907</v>
+        <v>71.462362</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>41.311081</v>
+        <v>41.356133</v>
       </c>
       <c r="B47">
-        <v>69.240562</v>
+        <v>69.31018</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>41.356133</v>
+        <v>41.311081</v>
       </c>
       <c r="B48">
-        <v>69.31018</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>41.311081</v>
+        <v>40.442514</v>
       </c>
       <c r="B49">
-        <v>69.240562</v>
+        <v>70.605376</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>40.442514</v>
+        <v>40.120924</v>
       </c>
       <c r="B50">
-        <v>70.605376</v>
+        <v>67.848389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>40.120924</v>
+        <v>37.238382</v>
       </c>
       <c r="B51">
-        <v>67.848389</v>
+        <v>67.271896</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>37.24164</v>
+        <v>41.034175</v>
       </c>
       <c r="B52">
-        <v>67.420788</v>
+        <v>71.61485</v>
       </c>
     </row>
     <row r="53">
@@ -806,18 +806,18 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>38.276548</v>
+        <v>41.32609330223087</v>
       </c>
       <c r="B54">
-        <v>67.931161</v>
+        <v>69.26757289251788</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>37.238382</v>
+        <v>41.311081</v>
       </c>
       <c r="B55">
-        <v>67.271896</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="56">
@@ -830,306 +830,306 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>41.311081</v>
+        <v>41.28763</v>
       </c>
       <c r="B57">
-        <v>69.240562</v>
+        <v>69.150918</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>41.034175</v>
+        <v>41.258937</v>
       </c>
       <c r="B58">
-        <v>71.61485</v>
+        <v>69.354988</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>41.32609330223087</v>
+        <v>41.311081</v>
       </c>
       <c r="B59">
-        <v>69.26757289251788</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>41.28763</v>
+        <v>40.087071</v>
       </c>
       <c r="B60">
-        <v>69.150918</v>
+        <v>64.471934</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>41.258937</v>
+        <v>39.851852</v>
       </c>
       <c r="B61">
-        <v>69.354988</v>
+        <v>64.440877</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>41.311081</v>
+        <v>40.874931</v>
       </c>
       <c r="B62">
-        <v>69.240562</v>
+        <v>69.043566</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>40.087071</v>
+        <v>40.991409</v>
       </c>
       <c r="B63">
-        <v>64.471934</v>
+        <v>71.635793</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>39.851852</v>
+        <v>41.311081</v>
       </c>
       <c r="B64">
-        <v>64.440877</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>40.874931</v>
+        <v>41.311081</v>
       </c>
       <c r="B65">
-        <v>69.043566</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>40.859885</v>
+        <v>40.533693</v>
       </c>
       <c r="B66">
-        <v>71.462362</v>
+        <v>70.929316</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>41.311081</v>
+        <v>37.24164</v>
       </c>
       <c r="B67">
-        <v>69.240562</v>
+        <v>67.420788</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>41.311081</v>
+        <v>38.276548</v>
       </c>
       <c r="B68">
-        <v>69.240562</v>
+        <v>67.931161</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>40.533693</v>
+        <v>37.225874</v>
       </c>
       <c r="B69">
-        <v>70.929316</v>
+        <v>67.272595</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>37.241347</v>
+        <v>40.479617</v>
       </c>
       <c r="B70">
-        <v>67.420404</v>
+        <v>71.204801</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>40.991409</v>
+        <v>37.241347</v>
       </c>
       <c r="B71">
-        <v>71.635793</v>
+        <v>67.420404</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>40.534379</v>
+        <v>41.28893</v>
       </c>
       <c r="B72">
-        <v>70.952818</v>
+        <v>69.315821</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>40.479617</v>
+        <v>41.311081</v>
       </c>
       <c r="B73">
-        <v>71.204801</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>41.28893</v>
+        <v>41.229353</v>
       </c>
       <c r="B74">
-        <v>69.315821</v>
+        <v>69.153755</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>37.225874</v>
+        <v>41.388203</v>
       </c>
       <c r="B75">
-        <v>67.272595</v>
+        <v>60.352822</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>41.229353</v>
+        <v>39.706894</v>
       </c>
       <c r="B76">
-        <v>69.153755</v>
+        <v>66.648071</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>41.311081</v>
+        <v>40.502828</v>
       </c>
       <c r="B77">
-        <v>69.240562</v>
+        <v>68.772022</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>41.286564</v>
+        <v>40.547375</v>
       </c>
       <c r="B78">
-        <v>69.151685</v>
+        <v>70.957457</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>41.311081</v>
+        <v>41.292535</v>
       </c>
       <c r="B79">
-        <v>69.240562</v>
+        <v>69.149659</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>39.706894</v>
+        <v>37.23739</v>
       </c>
       <c r="B80">
-        <v>66.648071</v>
+        <v>67.267282</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>41.311081</v>
+        <v>41.189317</v>
       </c>
       <c r="B81">
-        <v>69.240562</v>
+        <v>71.723031</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>40.547375</v>
+        <v>40.21329</v>
       </c>
       <c r="B82">
-        <v>70.957457</v>
+        <v>69.267896</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>41.292535</v>
+        <v>40.561822</v>
       </c>
       <c r="B83">
-        <v>69.149659</v>
+        <v>65.713295</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>37.23739</v>
+        <v>41.565508</v>
       </c>
       <c r="B84">
-        <v>67.267282</v>
+        <v>64.187407</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>41.189317</v>
+        <v>41.28893</v>
       </c>
       <c r="B85">
-        <v>71.723031</v>
+        <v>69.315821</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>40.21329</v>
+        <v>41.284652</v>
       </c>
       <c r="B86">
-        <v>69.267896</v>
+        <v>69.176641</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>41.28893</v>
+        <v>41.311081</v>
       </c>
       <c r="B87">
-        <v>69.315821</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>41.565508</v>
+        <v>38.869731</v>
       </c>
       <c r="B88">
-        <v>64.187407</v>
+        <v>65.801824</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>41.311081</v>
+        <v>39.706298</v>
       </c>
       <c r="B89">
-        <v>69.240562</v>
+        <v>66.648184</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>41.284652</v>
+        <v>41.286564</v>
       </c>
       <c r="B90">
-        <v>69.176641</v>
+        <v>69.151685</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>41.311081</v>
-      </c>
-      <c r="B91">
-        <v>69.240562</v>
+        <v>39.706894</v>
+      </c>
+      <c r="B91" t="str">
+        <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>38.869731</v>
+        <v>41.244849</v>
       </c>
       <c r="B92">
-        <v>65.801824</v>
+        <v>69.16697</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>40.502828</v>
+        <v>41.311081</v>
       </c>
       <c r="B93">
-        <v>68.772022</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>39.706298</v>
+        <v>41.22285044766092</v>
       </c>
       <c r="B94">
-        <v>66.648184</v>
+        <v>69.30760984294851</v>
       </c>
     </row>
     <row r="95">
@@ -1142,26 +1142,26 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>39.706894</v>
-      </c>
-      <c r="B96" t="str">
-        <v/>
+        <v>41.311081</v>
+      </c>
+      <c r="B96">
+        <v>69.240562</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>41.244849</v>
+        <v>41.311081</v>
       </c>
       <c r="B97">
-        <v>69.16697</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>41.388203</v>
+        <v>41.311081</v>
       </c>
       <c r="B98">
-        <v>60.352822</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="99">
@@ -1174,10 +1174,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>41.22285044766092</v>
+        <v>40.988874</v>
       </c>
       <c r="B100">
-        <v>69.30760984294851</v>
+        <v>72.100475</v>
       </c>
     </row>
     <row r="101">
@@ -1190,10 +1190,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>41.311081</v>
+        <v>40.441574</v>
       </c>
       <c r="B102">
-        <v>69.240562</v>
+        <v>71.766567</v>
       </c>
     </row>
     <row r="103">
@@ -1206,178 +1206,178 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>41.311081</v>
+        <v>41.502636</v>
       </c>
       <c r="B104">
-        <v>69.240562</v>
+        <v>64.494987</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>41.311081</v>
+        <v>41.843479</v>
       </c>
       <c r="B105">
-        <v>69.240562</v>
+        <v>60.388597</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>40.988874</v>
+        <v>38.276548</v>
       </c>
       <c r="B106">
-        <v>72.100475</v>
+        <v>67.931161</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>41.311081</v>
+        <v>41.077483</v>
       </c>
       <c r="B107">
-        <v>69.240562</v>
+        <v>71.814391</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>41.311081</v>
+        <v>41.0735</v>
       </c>
       <c r="B108">
-        <v>69.240562</v>
+        <v>71.806487</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>40.441574</v>
+        <v>41.378013</v>
       </c>
       <c r="B109">
-        <v>71.766567</v>
+        <v>69.295223</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>41.311081</v>
+        <v>40.121215</v>
       </c>
       <c r="B110">
-        <v>69.240562</v>
+        <v>67.845506</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>41.311081</v>
+        <v>41.68922</v>
       </c>
       <c r="B111">
-        <v>69.240562</v>
+        <v>70.05088</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>40.561822</v>
+        <v>41.311081</v>
       </c>
       <c r="B112">
-        <v>65.713295</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>41.311081</v>
+        <v>40.476222</v>
       </c>
       <c r="B113">
-        <v>69.240562</v>
+        <v>71.733565</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>41.311081</v>
+        <v>40.933002</v>
       </c>
       <c r="B114">
-        <v>69.240562</v>
+        <v>71.829516</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>41.843479</v>
+        <v>41.26458</v>
       </c>
       <c r="B115">
-        <v>60.388597</v>
+        <v>69.364309</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>41.311081</v>
+        <v>40.992494</v>
       </c>
       <c r="B116">
-        <v>69.240562</v>
+        <v>71.652398</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>41.0735</v>
+        <v>41.311081</v>
       </c>
       <c r="B117">
-        <v>71.806487</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>41.311081</v>
+        <v>37.215918</v>
       </c>
       <c r="B118">
-        <v>69.240562</v>
+        <v>67.278876</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>42.155197</v>
+        <v>42.155809</v>
       </c>
       <c r="B119">
-        <v>63.56313</v>
+        <v>63.563614</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>41.68922</v>
+        <v>42.155197</v>
       </c>
       <c r="B120">
-        <v>70.05088</v>
+        <v>63.56313</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>41.245605</v>
+        <v>40.986543</v>
       </c>
       <c r="B121">
-        <v>69.316853</v>
+        <v>71.678815</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>40.121215</v>
+        <v>41.311081</v>
       </c>
       <c r="B122">
-        <v>67.845506</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>41.311081</v>
+        <v>40.1113</v>
       </c>
       <c r="B123">
-        <v>69.240562</v>
+        <v>67.84124</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>42.155809</v>
+        <v>41.322575</v>
       </c>
       <c r="B124">
-        <v>63.563614</v>
+        <v>69.196366</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>40.476222</v>
+        <v>41.311081</v>
       </c>
       <c r="B125">
-        <v>71.733565</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="126">
@@ -1390,18 +1390,18 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>41.26458</v>
+        <v>41.311081</v>
       </c>
       <c r="B127">
-        <v>69.364309</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>40.992494</v>
+        <v>41.245605</v>
       </c>
       <c r="B128">
-        <v>71.652398</v>
+        <v>69.316853</v>
       </c>
     </row>
     <row r="129">
@@ -1414,66 +1414,66 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>37.215918</v>
+        <v>41.311081</v>
       </c>
       <c r="B130">
-        <v>67.278876</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>40.933002</v>
+        <v>37.234577</v>
       </c>
       <c r="B131">
-        <v>71.829516</v>
+        <v>67.278377</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>40.986543</v>
+        <v>40.995415</v>
       </c>
       <c r="B132">
-        <v>71.678815</v>
+        <v>71.591329</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>41.369182</v>
+        <v>41.311081</v>
       </c>
       <c r="B133">
-        <v>69.2806</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>40.1113</v>
+        <v>39.657318</v>
       </c>
       <c r="B134">
-        <v>67.84124</v>
+        <v>66.887527</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>41.322575</v>
+        <v>41.286556</v>
       </c>
       <c r="B135">
-        <v>69.196366</v>
+        <v>69.151657</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>41.311081</v>
+        <v>40.978146</v>
       </c>
       <c r="B136">
-        <v>69.240562</v>
+        <v>71.704525</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>41.311081</v>
+        <v>41.369182</v>
       </c>
       <c r="B137">
-        <v>69.240562</v>
+        <v>69.2806</v>
       </c>
     </row>
     <row r="138">
@@ -1486,74 +1486,74 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>41.378013</v>
+        <v>41.311081</v>
       </c>
       <c r="B139">
-        <v>69.295223</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>41.311081</v>
+        <v>39.584226</v>
       </c>
       <c r="B140">
-        <v>69.240562</v>
+        <v>66.921709</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>41.502636</v>
+        <v>41.537077</v>
       </c>
       <c r="B141">
-        <v>64.494987</v>
+        <v>60.640722</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>41.311081</v>
+        <v>41.325579</v>
       </c>
       <c r="B142">
-        <v>69.240562</v>
+        <v>69.231415</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>41.311081</v>
+        <v>41.532508</v>
       </c>
       <c r="B143">
-        <v>69.240562</v>
+        <v>60.61682</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>37.234577</v>
+        <v>38.827129057546415</v>
       </c>
       <c r="B144">
-        <v>67.278377</v>
+        <v>66.46111597126786</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>40.995415</v>
+        <v>40.993828</v>
       </c>
       <c r="B145">
-        <v>71.591329</v>
+        <v>71.666684</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>41.077483</v>
+        <v>41.26381</v>
       </c>
       <c r="B146">
-        <v>71.814391</v>
+        <v>69.221801</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>41.311081</v>
+        <v>40.914304</v>
       </c>
       <c r="B147">
-        <v>69.240562</v>
+        <v>72.110897</v>
       </c>
     </row>
     <row r="148">
@@ -1566,274 +1566,274 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>39.657318</v>
+        <v>41.01099</v>
       </c>
       <c r="B149">
-        <v>66.887527</v>
+        <v>71.677277</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>41.286556</v>
+        <v>41.311081</v>
       </c>
       <c r="B150">
-        <v>69.151657</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>40.978146</v>
+        <v>40.096424</v>
       </c>
       <c r="B151">
-        <v>71.704525</v>
+        <v>64.695198</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>38.276548</v>
+        <v>37.220328</v>
       </c>
       <c r="B152">
-        <v>67.931161</v>
+        <v>67.303089</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>41.311081</v>
+        <v>40.897345</v>
       </c>
       <c r="B153">
-        <v>69.240562</v>
+        <v>71.805118</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>39.584226</v>
+        <v>41.083782</v>
       </c>
       <c r="B154">
-        <v>66.921709</v>
+        <v>69.326683</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>37.236613</v>
+        <v>40.427258</v>
       </c>
       <c r="B155">
-        <v>67.279067</v>
+        <v>71.250792</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>41.325579</v>
+        <v>38.849098</v>
       </c>
       <c r="B156">
-        <v>69.231415</v>
+        <v>65.799209</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>41.532508</v>
+        <v>40.991834</v>
       </c>
       <c r="B157">
-        <v>60.61682</v>
+        <v>71.647573</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>40.897345</v>
+        <v>41.532508</v>
       </c>
       <c r="B158">
-        <v>71.805118</v>
+        <v>60.61682</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>40.914304</v>
+        <v>40.517609</v>
       </c>
       <c r="B159">
-        <v>72.110897</v>
+        <v>70.964322</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>41.26381</v>
+        <v>41.311081</v>
       </c>
       <c r="B160">
-        <v>69.221801</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>40.517609</v>
+        <v>41.272972</v>
       </c>
       <c r="B161">
-        <v>70.964322</v>
+        <v>69.146241</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>41.502636</v>
+        <v>41.010836</v>
       </c>
       <c r="B162">
-        <v>64.494987</v>
+        <v>69.35866</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>41.01099</v>
+        <v>40.112022</v>
       </c>
       <c r="B163">
-        <v>71.677277</v>
+        <v>65.346584</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>40.993828</v>
+        <v>39.761586</v>
       </c>
       <c r="B164">
-        <v>71.666684</v>
+        <v>64.437199</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>40.44141</v>
+        <v>41.311283</v>
       </c>
       <c r="B165">
-        <v>71.714818</v>
+        <v>69.311652</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>41.311081</v>
+        <v>42.479385</v>
       </c>
       <c r="B166">
-        <v>69.240562</v>
+        <v>59.722785</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>38.827129057546415</v>
+        <v>41.27382</v>
       </c>
       <c r="B167">
-        <v>66.46111597126786</v>
+        <v>69.309804</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>41.010836</v>
+        <v>41.258401</v>
       </c>
       <c r="B168">
-        <v>69.35866</v>
+        <v>69.151269</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>41.272972</v>
+        <v>41.311081</v>
       </c>
       <c r="B169">
-        <v>69.146241</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>40.991834</v>
+        <v>41.502636</v>
       </c>
       <c r="B170">
-        <v>71.647573</v>
+        <v>64.494987</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>41.532508</v>
+        <v>41.083782</v>
       </c>
       <c r="B171">
-        <v>60.61682</v>
+        <v>69.326683</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>40.427258</v>
+        <v>40.851191</v>
       </c>
       <c r="B172">
-        <v>71.250792</v>
+        <v>71.449517</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>37.220328</v>
+        <v>40.44141</v>
       </c>
       <c r="B173">
-        <v>67.303089</v>
+        <v>71.714818</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>38.849098</v>
+        <v>37.236613</v>
       </c>
       <c r="B174">
-        <v>65.799209</v>
+        <v>67.279067</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>41.083782</v>
+        <v>41.187054</v>
       </c>
       <c r="B175">
-        <v>69.326683</v>
+        <v>69.313428</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>40.112022</v>
+        <v>41.242104</v>
       </c>
       <c r="B176">
-        <v>65.346584</v>
+        <v>71.538604</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>40.851191</v>
+        <v>41.386234</v>
       </c>
       <c r="B177">
-        <v>71.449517</v>
+        <v>60.36044</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>39.761586</v>
+        <v>39.971116</v>
       </c>
       <c r="B178">
-        <v>64.437199</v>
+        <v>68.404374</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>41.311283</v>
+        <v>41.573514</v>
       </c>
       <c r="B179">
-        <v>69.311652</v>
+        <v>64.210101</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>42.479385</v>
+        <v>38.274621</v>
       </c>
       <c r="B180">
-        <v>59.722785</v>
+        <v>67.891466</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>41.083782</v>
+        <v>41.311081</v>
       </c>
       <c r="B181">
-        <v>69.326683</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>41.311081</v>
+        <v>41.032021</v>
       </c>
       <c r="B182">
-        <v>69.240562</v>
+        <v>71.680083</v>
       </c>
     </row>
     <row r="183">
@@ -1846,18 +1846,18 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>40.096424</v>
+        <v>41.546658</v>
       </c>
       <c r="B184">
-        <v>64.695198</v>
+        <v>61.012371</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>41.27382</v>
+        <v>41.285859</v>
       </c>
       <c r="B185">
-        <v>69.309804</v>
+        <v>69.150492</v>
       </c>
     </row>
     <row r="186">
@@ -1870,42 +1870,42 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>41.258401</v>
+        <v>41.311081</v>
       </c>
       <c r="B187">
-        <v>69.151269</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>41.537077</v>
+        <v>41.311081</v>
       </c>
       <c r="B188">
-        <v>60.640722</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>38.207344</v>
+        <v>40.134587</v>
       </c>
       <c r="B189">
-        <v>67.205145</v>
+        <v>67.82528</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>41.246969</v>
+        <v>41.311081</v>
       </c>
       <c r="B190">
-        <v>69.128217</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>41.009558</v>
+        <v>41.311081</v>
       </c>
       <c r="B191">
-        <v>70.058957</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="192">
@@ -1918,10 +1918,10 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>39.971116</v>
+        <v>37.212878</v>
       </c>
       <c r="B193">
-        <v>68.404374</v>
+        <v>67.278027</v>
       </c>
     </row>
     <row r="194">
@@ -1934,42 +1934,42 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>38.011929</v>
+        <v>41.009558</v>
       </c>
       <c r="B195">
-        <v>67.793281</v>
+        <v>70.058957</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>41.287816</v>
+        <v>38.011929</v>
       </c>
       <c r="B196">
-        <v>69.150889</v>
+        <v>67.793281</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>41.242104</v>
+        <v>41.353847</v>
       </c>
       <c r="B197">
-        <v>71.538604</v>
+        <v>69.387196</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>41.546658</v>
+        <v>41.311081</v>
       </c>
       <c r="B198">
-        <v>61.012371</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>41.285859</v>
+        <v>40.21334</v>
       </c>
       <c r="B199">
-        <v>69.150492</v>
+        <v>69.267903</v>
       </c>
     </row>
     <row r="200">
@@ -1982,90 +1982,90 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>41.353847</v>
+        <v>41.311081</v>
       </c>
       <c r="B201">
-        <v>69.387196</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>41.573514</v>
+        <v>39.669225</v>
       </c>
       <c r="B202">
-        <v>64.210101</v>
+        <v>66.969984</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>40.134587</v>
+        <v>40.109235</v>
       </c>
       <c r="B203">
-        <v>67.82528</v>
+        <v>65.528949</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>41.311081</v>
+        <v>39.033048</v>
       </c>
       <c r="B204">
-        <v>69.240562</v>
+        <v>66.57662</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>41.311081</v>
+        <v>38.207344</v>
       </c>
       <c r="B205">
-        <v>69.240562</v>
+        <v>67.205145</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>38.274621</v>
+        <v>41.311081</v>
       </c>
       <c r="B206">
-        <v>67.891466</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>37.212878</v>
+        <v>40.787413</v>
       </c>
       <c r="B207">
-        <v>67.278027</v>
+        <v>72.331451</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>41.311081</v>
+        <v>41.246969</v>
       </c>
       <c r="B208">
-        <v>69.240562</v>
+        <v>69.128217</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>41.386234</v>
+        <v>41.366442</v>
       </c>
       <c r="B209">
-        <v>60.36044</v>
+        <v>69.204262</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>39.033048</v>
+        <v>38.364846</v>
       </c>
       <c r="B210">
-        <v>66.57662</v>
+        <v>68.063998</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>41.032021</v>
+        <v>41.287816</v>
       </c>
       <c r="B211">
-        <v>71.680083</v>
+        <v>69.150889</v>
       </c>
     </row>
     <row r="212">
@@ -2078,18 +2078,18 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>41.311081</v>
+        <v>37.668168</v>
       </c>
       <c r="B213">
-        <v>69.240562</v>
+        <v>67.025427</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>41.187054</v>
+        <v>41.311081</v>
       </c>
       <c r="B214">
-        <v>69.313428</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="215">
@@ -2126,10 +2126,10 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>40.21334</v>
-      </c>
-      <c r="B219">
-        <v>69.267903</v>
+        <v>41.130584</v>
+      </c>
+      <c r="B219" t="str">
+        <v/>
       </c>
     </row>
     <row r="220">
@@ -2142,42 +2142,42 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>39.669225</v>
+        <v>41.311081</v>
       </c>
       <c r="B221">
-        <v>66.969984</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>40.787413</v>
+        <v>41.311081</v>
       </c>
       <c r="B222">
-        <v>72.331451</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>40.109235</v>
+        <v>41.311081</v>
       </c>
       <c r="B223">
-        <v>65.528949</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>41.366442</v>
+        <v>41.479498</v>
       </c>
       <c r="B224">
-        <v>69.204262</v>
+        <v>69.596705</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>38.364846</v>
+        <v>41.311081</v>
       </c>
       <c r="B225">
-        <v>68.063998</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="226">
@@ -2190,18 +2190,18 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>37.668168</v>
+        <v>41.311081</v>
       </c>
       <c r="B227">
-        <v>67.025427</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>37.666575</v>
+        <v>41.311081</v>
       </c>
       <c r="B228">
-        <v>67.235779</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="229">
@@ -2222,10 +2222,10 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>41.311081</v>
+        <v>41.371322</v>
       </c>
       <c r="B231">
-        <v>69.240562</v>
+        <v>69.287797</v>
       </c>
     </row>
     <row r="232">
@@ -2246,10 +2246,10 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>41.130584</v>
-      </c>
-      <c r="B234" t="str">
-        <v/>
+        <v>41.311081</v>
+      </c>
+      <c r="B234">
+        <v>69.240562</v>
       </c>
     </row>
     <row r="235">
@@ -2270,10 +2270,10 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>41.311081</v>
+        <v>37.416917</v>
       </c>
       <c r="B237">
-        <v>69.240562</v>
+        <v>66.98253</v>
       </c>
     </row>
     <row r="238">
@@ -2286,18 +2286,18 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>41.479498</v>
+        <v>41.311081</v>
       </c>
       <c r="B239">
-        <v>69.596705</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>41.259358</v>
-      </c>
-      <c r="B240" t="str">
-        <v/>
+        <v>41.311081</v>
+      </c>
+      <c r="B240">
+        <v>69.240562</v>
       </c>
     </row>
     <row r="241">
@@ -2310,10 +2310,10 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>37.416917</v>
+        <v>41.311081</v>
       </c>
       <c r="B242">
-        <v>66.98253</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="243">
@@ -2326,10 +2326,10 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>41.311081</v>
+        <v>37.666575</v>
       </c>
       <c r="B244">
-        <v>69.240562</v>
+        <v>67.235779</v>
       </c>
     </row>
     <row r="245">
@@ -2358,18 +2358,18 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>41.311081</v>
-      </c>
-      <c r="B248">
-        <v>69.240562</v>
+        <v>41.259358</v>
+      </c>
+      <c r="B248" t="str">
+        <v/>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>41.311081</v>
+        <v>41.20547368615667</v>
       </c>
       <c r="B249">
-        <v>69.240562</v>
+        <v>69.3225427533857</v>
       </c>
     </row>
     <row r="250">
@@ -2406,10 +2406,10 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>41.311081</v>
+        <v>41.29415360644287</v>
       </c>
       <c r="B254">
-        <v>69.240562</v>
+        <v>69.35063364460505</v>
       </c>
     </row>
     <row r="255">
@@ -2422,10 +2422,10 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>41.311081</v>
+        <v>32.67209188045514</v>
       </c>
       <c r="B256">
-        <v>69.240562</v>
+        <v>2.5784302420313843</v>
       </c>
     </row>
     <row r="257">
@@ -2438,18 +2438,18 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>41.371322</v>
+        <v>41.311081</v>
       </c>
       <c r="B258">
-        <v>69.287797</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>41.311081</v>
+        <v>41.296838562578685</v>
       </c>
       <c r="B259">
-        <v>69.240562</v>
+        <v>69.35042880684009</v>
       </c>
     </row>
     <row r="260">
@@ -2478,18 +2478,18 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>41.311081</v>
+        <v>41.692667697643586</v>
       </c>
       <c r="B263">
-        <v>69.240562</v>
+        <v>60.7611536508514</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>41.20547368615667</v>
+        <v>41.013273</v>
       </c>
       <c r="B264">
-        <v>69.3225427533857</v>
+        <v>71.649046</v>
       </c>
     </row>
     <row r="265">
@@ -2502,10 +2502,10 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>41.311081</v>
+        <v>42.471119</v>
       </c>
       <c r="B266">
-        <v>69.240562</v>
+        <v>59.585605</v>
       </c>
     </row>
     <row r="267">
@@ -2518,10 +2518,10 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>40.860005</v>
+        <v>41.311081</v>
       </c>
       <c r="B268">
-        <v>69.590743</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="269">
@@ -2542,10 +2542,10 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>41.296838562578685</v>
+        <v>41.311081</v>
       </c>
       <c r="B271">
-        <v>69.35042880684009</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="272">
@@ -2558,18 +2558,18 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>41.311081</v>
+        <v>40.476222</v>
       </c>
       <c r="B273">
-        <v>69.240562</v>
+        <v>71.733565</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>41.29657496631876</v>
+        <v>42.471119</v>
       </c>
       <c r="B274">
-        <v>69.26242736788939</v>
+        <v>59.585605</v>
       </c>
     </row>
     <row r="275">
@@ -2582,34 +2582,34 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>41.311081</v>
+        <v>41.29657496631876</v>
       </c>
       <c r="B276">
-        <v>69.240562</v>
+        <v>69.26242736788939</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>41.311081</v>
+        <v>40.875285</v>
       </c>
       <c r="B277">
-        <v>69.240562</v>
+        <v>69.593716</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>41.692667697643586</v>
+        <v>41.311081</v>
       </c>
       <c r="B278">
-        <v>60.7611536508514</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>41.29415360644287</v>
+        <v>41.311081</v>
       </c>
       <c r="B279">
-        <v>69.35063364460505</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="280">
@@ -2622,18 +2622,18 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>42.471119</v>
+        <v>41.311081</v>
       </c>
       <c r="B281">
-        <v>59.585605</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>32.67209188045514</v>
+        <v>41.311081</v>
       </c>
       <c r="B282">
-        <v>2.5784302420313843</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="283">
@@ -2654,18 +2654,18 @@
     </row>
     <row r="285">
       <c r="A285">
-        <v>41.311081</v>
+        <v>37.69077559964211</v>
       </c>
       <c r="B285">
-        <v>69.240562</v>
+        <v>67.03234558614442</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>41.311081</v>
+        <v>40.860005</v>
       </c>
       <c r="B286">
-        <v>69.240562</v>
+        <v>69.590743</v>
       </c>
     </row>
     <row r="287">
@@ -2678,26 +2678,26 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>41.311081</v>
+        <v>41.455921</v>
       </c>
       <c r="B288">
-        <v>69.240562</v>
+        <v>69.547213</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>42.471119</v>
+        <v>39.769953</v>
       </c>
       <c r="B289">
-        <v>59.585605</v>
+        <v>64.428083</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>40.476222</v>
+        <v>41.311081</v>
       </c>
       <c r="B290">
-        <v>71.733565</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="291">
@@ -2710,10 +2710,10 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>40.875285</v>
+        <v>41.364216</v>
       </c>
       <c r="B292">
-        <v>69.593716</v>
+        <v>69.184627</v>
       </c>
     </row>
     <row r="293">
@@ -2726,10 +2726,10 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>41.311081</v>
+        <v>38.017286</v>
       </c>
       <c r="B294">
-        <v>69.240562</v>
+        <v>67.791625</v>
       </c>
     </row>
     <row r="295">
@@ -2742,218 +2742,218 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>41.311081</v>
+        <v>39.822479</v>
       </c>
       <c r="B296">
-        <v>69.240562</v>
+        <v>64.254297</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>41.013273</v>
+        <v>41.265672</v>
       </c>
       <c r="B297">
-        <v>71.649046</v>
+        <v>69.152264</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>41.311081</v>
+        <v>41.27368077084649</v>
       </c>
       <c r="B298">
-        <v>69.240562</v>
+        <v>69.22400197732735</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>41.311081</v>
+        <v>40.994867</v>
       </c>
       <c r="B299">
-        <v>69.240562</v>
+        <v>71.647408</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>37.69077559964211</v>
+        <v>41.311081</v>
       </c>
       <c r="B300">
-        <v>67.03234558614442</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>41.311081</v>
+        <v>41.364971</v>
       </c>
       <c r="B301">
-        <v>69.240562</v>
+        <v>69.204295</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>41.455921</v>
+        <v>41.29761873261607</v>
       </c>
       <c r="B302">
-        <v>69.547213</v>
+        <v>69.24033309022438</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>41.392823</v>
+        <v>42.112409</v>
       </c>
       <c r="B303">
-        <v>60.358505</v>
+        <v>60.054549</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>39.769953</v>
+        <v>41.302087</v>
       </c>
       <c r="B304">
-        <v>64.428083</v>
+        <v>69.211117</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>41.311081</v>
+        <v>41.568916</v>
       </c>
       <c r="B305">
-        <v>69.240562</v>
+        <v>64.193268</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>41.330242</v>
+        <v>39.640217</v>
       </c>
       <c r="B306">
-        <v>69.329786</v>
+        <v>66.970209</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>41.311081</v>
+        <v>57.807223</v>
       </c>
       <c r="B307">
-        <v>69.240562</v>
+        <v>0.000012</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>42.458729</v>
+        <v>40.751247</v>
       </c>
       <c r="B308">
-        <v>59.606322</v>
+        <v>72.340775</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>38.017286</v>
+        <v>20.79721</v>
       </c>
       <c r="B309">
-        <v>67.791625</v>
+        <v>0.000005</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>39.822479</v>
+        <v>40.309673</v>
       </c>
       <c r="B310">
-        <v>64.254297</v>
+        <v>69.034242</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>20.79721</v>
+        <v>41.311081</v>
       </c>
       <c r="B311">
-        <v>0.000005</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>41.27368077084649</v>
+        <v>41.311158</v>
       </c>
       <c r="B312">
-        <v>69.22400197732735</v>
+        <v>69.17601</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>41.306122</v>
+        <v>41.311081</v>
       </c>
       <c r="B313">
-        <v>69.134306</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>41.311081</v>
+        <v>42.458729</v>
       </c>
       <c r="B314">
-        <v>69.240562</v>
+        <v>59.606322</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>41.302087</v>
+        <v>41.392823</v>
       </c>
       <c r="B315">
-        <v>69.211117</v>
+        <v>60.358505</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>41.364971</v>
+        <v>41.311081</v>
       </c>
       <c r="B316">
-        <v>69.204295</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>41.29761873261607</v>
+        <v>41.221056</v>
       </c>
       <c r="B317">
-        <v>69.24033309022438</v>
+        <v>69.102076</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>41.311081</v>
+        <v>40.419575</v>
       </c>
       <c r="B318">
-        <v>69.240562</v>
+        <v>71.240848</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>40.309673</v>
+        <v>37.247716</v>
       </c>
       <c r="B319">
-        <v>69.034242</v>
+        <v>67.30733</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>57.807223</v>
+        <v>41.306122</v>
       </c>
       <c r="B320">
-        <v>0.000012</v>
+        <v>69.134306</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>41.568916</v>
+        <v>41.330242</v>
       </c>
       <c r="B321">
-        <v>64.193268</v>
+        <v>69.329786</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>41.311158</v>
+        <v>41.367308</v>
       </c>
       <c r="B322">
-        <v>69.17601</v>
+        <v>69.302035</v>
       </c>
     </row>
     <row r="323">
@@ -2966,10 +2966,10 @@
     </row>
     <row r="324">
       <c r="A324">
-        <v>41.311081</v>
+        <v>40.72189</v>
       </c>
       <c r="B324">
-        <v>69.240562</v>
+        <v>72.638915</v>
       </c>
     </row>
     <row r="325">
@@ -2982,10 +2982,10 @@
     </row>
     <row r="326">
       <c r="A326">
-        <v>37.247716</v>
+        <v>41.311081</v>
       </c>
       <c r="B326">
-        <v>67.30733</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="327">
@@ -2998,10 +2998,10 @@
     </row>
     <row r="328">
       <c r="A328">
-        <v>41.364216</v>
+        <v>41.311081</v>
       </c>
       <c r="B328">
-        <v>69.184627</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="329">
@@ -3014,66 +3014,66 @@
     </row>
     <row r="330">
       <c r="A330">
-        <v>40.751247</v>
+        <v>40.783397</v>
       </c>
       <c r="B330">
-        <v>72.340775</v>
+        <v>72.323155</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>41.265672</v>
+        <v>41.286148</v>
       </c>
       <c r="B331">
-        <v>69.152264</v>
+        <v>69.347985</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>40.994867</v>
+        <v>41.311081</v>
       </c>
       <c r="B332">
-        <v>71.647408</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>41.367308</v>
+        <v>41.311081</v>
       </c>
       <c r="B333">
-        <v>69.302035</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>40.419575</v>
+        <v>41.311081</v>
       </c>
       <c r="B334">
-        <v>71.240848</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>42.112409</v>
+        <v>41.311081</v>
       </c>
       <c r="B335">
-        <v>60.054549</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>41.221056</v>
+        <v>41.365607</v>
       </c>
       <c r="B336">
-        <v>69.102076</v>
+        <v>69.183632</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>39.640217</v>
+        <v>41.311081</v>
       </c>
       <c r="B337">
-        <v>66.970209</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="338">
@@ -3086,26 +3086,26 @@
     </row>
     <row r="339">
       <c r="A339">
-        <v>41.311081</v>
+        <v>41.37151</v>
       </c>
       <c r="B339">
-        <v>69.240562</v>
+        <v>69.419912</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>41.311081</v>
+        <v>40.495243</v>
       </c>
       <c r="B340">
-        <v>69.240562</v>
+        <v>71.967331</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>40.548286</v>
+        <v>41.314952</v>
       </c>
       <c r="B341">
-        <v>70.950202</v>
+        <v>69.335368</v>
       </c>
     </row>
     <row r="342">
@@ -3118,10 +3118,10 @@
     </row>
     <row r="343">
       <c r="A343">
-        <v>41.311081</v>
+        <v>40.548286</v>
       </c>
       <c r="B343">
-        <v>69.240562</v>
+        <v>70.950202</v>
       </c>
     </row>
     <row r="344">
@@ -3134,34 +3134,34 @@
     </row>
     <row r="345">
       <c r="A345">
-        <v>41.311081</v>
+        <v>41.07541</v>
       </c>
       <c r="B345">
-        <v>69.240562</v>
+        <v>69.332125</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>41.37151</v>
+        <v>41.078613</v>
       </c>
       <c r="B346">
-        <v>69.419912</v>
+        <v>69.330201</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>41.311081</v>
+        <v>41.391689</v>
       </c>
       <c r="B347">
-        <v>69.240562</v>
+        <v>69.305987</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>41.311081</v>
+        <v>40.465536</v>
       </c>
       <c r="B348">
-        <v>69.240562</v>
+        <v>71.720678</v>
       </c>
     </row>
     <row r="349">
@@ -3174,258 +3174,258 @@
     </row>
     <row r="350">
       <c r="A350">
-        <v>41.311081</v>
+        <v>40.153219</v>
       </c>
       <c r="B350">
-        <v>69.240562</v>
+        <v>66.397918</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>41.365607</v>
+        <v>41.311081</v>
       </c>
       <c r="B351">
-        <v>69.183632</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>41.311081</v>
+        <v>41.37151</v>
       </c>
       <c r="B352">
-        <v>69.240562</v>
+        <v>69.419912</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>41.311081</v>
+        <v>41.221621</v>
       </c>
       <c r="B353">
-        <v>69.240562</v>
+        <v>69.194191</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>41.314952</v>
+        <v>37.248796</v>
       </c>
       <c r="B354">
-        <v>69.335368</v>
+        <v>67.288875</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>41.07541</v>
+        <v>41.311081</v>
       </c>
       <c r="B355">
-        <v>69.332125</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>40.72189</v>
+        <v>41.218793</v>
       </c>
       <c r="B356">
-        <v>72.638915</v>
+        <v>69.259033</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>41.311081</v>
+        <v>41.302049</v>
       </c>
       <c r="B357">
-        <v>69.240562</v>
+        <v>69.210814</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>41.286148</v>
+        <v>41.311081</v>
       </c>
       <c r="B358">
-        <v>69.347985</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>41.391689</v>
+        <v>41.311081</v>
       </c>
       <c r="B359">
-        <v>69.305987</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>41.311081</v>
+        <v>41.344724</v>
       </c>
       <c r="B360">
-        <v>69.240562</v>
+        <v>69.382954</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>41.078613</v>
+        <v>41.311081</v>
       </c>
       <c r="B361">
-        <v>69.330201</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>41.311081</v>
+        <v>40.864418</v>
       </c>
       <c r="B362">
-        <v>69.240562</v>
+        <v>71.459375</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>41.311081</v>
+        <v>40.501785</v>
       </c>
       <c r="B363">
-        <v>69.240562</v>
+        <v>70.922407</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>40.495243</v>
+        <v>41.311081</v>
       </c>
       <c r="B364">
-        <v>71.967331</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>40.465536</v>
+        <v>41.311081</v>
       </c>
       <c r="B365">
-        <v>71.720678</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>41.221621</v>
+        <v>41.311081</v>
       </c>
       <c r="B366">
-        <v>69.194191</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>40.153219</v>
+        <v>40.994115</v>
       </c>
       <c r="B367">
-        <v>66.397918</v>
+        <v>71.604379</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>41.302049</v>
+        <v>41.311081</v>
       </c>
       <c r="B368">
-        <v>69.210814</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>41.218793</v>
+        <v>41.311081</v>
       </c>
       <c r="B369">
-        <v>69.259033</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>40.783397</v>
+        <v>41.311081</v>
       </c>
       <c r="B370">
-        <v>72.323155</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>37.248796</v>
+        <v>41.311081</v>
       </c>
       <c r="B371">
-        <v>67.288875</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>41.37151</v>
+        <v>40.1114</v>
       </c>
       <c r="B372">
-        <v>69.419912</v>
+        <v>67.841092</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>41.311081</v>
+        <v>38.274733</v>
       </c>
       <c r="B373">
-        <v>69.240562</v>
+        <v>67.89159</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>41.311081</v>
+        <v>40.120041</v>
       </c>
       <c r="B374">
-        <v>69.240562</v>
+        <v>65.363102</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>41.572759</v>
+        <v>41.311081</v>
       </c>
       <c r="B375">
-        <v>69.805081</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>41.311081</v>
+        <v>69.31274414062501</v>
       </c>
       <c r="B376">
-        <v>69.240562</v>
+        <v>41.42007467380591</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>40.864418</v>
+        <v>40.476244</v>
       </c>
       <c r="B377">
-        <v>71.459375</v>
+        <v>71.733462</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>41.311081</v>
+        <v>37.242634</v>
       </c>
       <c r="B378">
-        <v>69.240562</v>
+        <v>67.42006</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>41.311081</v>
+        <v>69.29550132917234</v>
       </c>
       <c r="B379">
-        <v>69.240562</v>
+        <v>41.378038710694895</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>41.344724</v>
+        <v>41.311081</v>
       </c>
       <c r="B380">
-        <v>69.382954</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>41.311081</v>
+        <v>71.08815520041074</v>
       </c>
       <c r="B381">
-        <v>69.240562</v>
+        <v>40.34621520363029</v>
       </c>
     </row>
     <row r="382">
@@ -3438,26 +3438,26 @@
     </row>
     <row r="383">
       <c r="A383">
-        <v>41.311081</v>
+        <v>68.80001524370735</v>
       </c>
       <c r="B383">
-        <v>69.240562</v>
+        <v>40.49435497519215</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>41.311081</v>
+        <v>69.36907052993776</v>
       </c>
       <c r="B384">
-        <v>69.240562</v>
+        <v>41.250129564407324</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>40.120041</v>
+        <v>41.311081</v>
       </c>
       <c r="B385">
-        <v>65.363102</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="386">
@@ -3470,31 +3470,623 @@
     </row>
     <row r="387">
       <c r="A387">
-        <v>40.1114</v>
+        <v>41.311081</v>
       </c>
       <c r="B387">
-        <v>67.841092</v>
+        <v>69.240562</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>41.311081</v>
+        <v>40.117206</v>
       </c>
       <c r="B388">
-        <v>69.240562</v>
+        <v>67.835906</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>40.117206</v>
+        <v>71.91946625557401</v>
       </c>
       <c r="B389">
-        <v>67.835906</v>
+        <v>40.475319591186405</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>40.238828</v>
+      </c>
+      <c r="B390">
+        <v>66.65036</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>66.9653502</v>
+      </c>
+      <c r="B391">
+        <v>39.6507963</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>69.2952254</v>
+      </c>
+      <c r="B392">
+        <v>41.3780262</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>41.572759</v>
+      </c>
+      <c r="B393">
+        <v>69.805081</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>66.9241549</v>
+      </c>
+      <c r="B394">
+        <v>39.7192726</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>41.311081</v>
+      </c>
+      <c r="B395">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>71.76754637773553</v>
+      </c>
+      <c r="B396">
+        <v>40.39617348701983</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>69.30175781250001</v>
+      </c>
+      <c r="B397">
+        <v>41.29083486485874</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>41.311081</v>
+      </c>
+      <c r="B398">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>41.311081</v>
+      </c>
+      <c r="B399">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>40.755406</v>
+      </c>
+      <c r="B400">
+        <v>72.376529</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>72.24101779437794</v>
+      </c>
+      <c r="B401">
+        <v>40.645621575936346</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402">
+        <v>71.7240763</v>
+      </c>
+      <c r="B402">
+        <v>40.4739429</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403">
+        <v>40.212497</v>
+      </c>
+      <c r="B403">
+        <v>69.265487</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404">
+        <v>69.6361344</v>
+      </c>
+      <c r="B404">
+        <v>41.3074423</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405">
+        <v>37.22269000037997</v>
+      </c>
+      <c r="B405">
+        <v>67.28125373719556</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406">
+        <v>41.311081</v>
+      </c>
+      <c r="B406">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407">
+        <v>69.2748288</v>
+      </c>
+      <c r="B407">
+        <v>41.2975104</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408">
+        <v>69.33471679687501</v>
+      </c>
+      <c r="B408">
+        <v>41.25372056693953</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409">
+        <v>41.311081</v>
+      </c>
+      <c r="B409">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410">
+        <v>41.311081</v>
+      </c>
+      <c r="B410">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411">
+        <v>41.311081</v>
+      </c>
+      <c r="B411">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412">
+        <v>41.311081</v>
+      </c>
+      <c r="B412">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413">
+        <v>41.311081</v>
+      </c>
+      <c r="B413">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>41.311081</v>
+      </c>
+      <c r="B414">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
+        <v>41.311081</v>
+      </c>
+      <c r="B415">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416">
+        <v>41.311081</v>
+      </c>
+      <c r="B416">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>41.311081</v>
+      </c>
+      <c r="B417">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>41.311081</v>
+      </c>
+      <c r="B418">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>41.311081</v>
+      </c>
+      <c r="B419">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420">
+        <v>41.311081</v>
+      </c>
+      <c r="B420">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421">
+        <v>41.311081</v>
+      </c>
+      <c r="B421">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>41.220068</v>
+      </c>
+      <c r="B422">
+        <v>69.105222</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>40.467227</v>
+      </c>
+      <c r="B423">
+        <v>71.722781</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>69.255168</v>
+      </c>
+      <c r="B424">
+        <v>41.2909568</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>71.7875574</v>
+      </c>
+      <c r="B425">
+        <v>40.3983651</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
+        <v>69.31274414062501</v>
+      </c>
+      <c r="B426">
+        <v>41.199968947665155</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427">
+        <v>69.34570312500001</v>
+      </c>
+      <c r="B427">
+        <v>41.33626322920396</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428">
+        <v>69.31274414062501</v>
+      </c>
+      <c r="B428">
+        <v>41.36508570498992</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429">
+        <v>38.341866</v>
+      </c>
+      <c r="B429">
+        <v>65.982554</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430">
+        <v>69.2518912</v>
+      </c>
+      <c r="B430">
+        <v>41.2942336</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v/>
+      </c>
+      <c r="B431" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432">
+        <v>67.15159177780153</v>
+      </c>
+      <c r="B432">
+        <v>37.457593047953566</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433">
+        <v>69.0522351</v>
+      </c>
+      <c r="B433">
+        <v>40.7133311</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434">
+        <v>69.6815985</v>
+      </c>
+      <c r="B434">
+        <v>41.551569</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v/>
+      </c>
+      <c r="B435" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436">
+        <v>66.8278643</v>
+      </c>
+      <c r="B436">
+        <v>39.0525821</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437">
+        <v>72.1797059</v>
+      </c>
+      <c r="B437">
+        <v>40.783365</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438">
+        <v>69.38964843750001</v>
+      </c>
+      <c r="B438">
+        <v>41.32801366348152</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439">
+        <v>41.311081</v>
+      </c>
+      <c r="B439">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440">
+        <v>42.46411021524644</v>
+      </c>
+      <c r="B440">
+        <v>59.58617359760502</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441">
+        <v>66.2381042</v>
+      </c>
+      <c r="B441">
+        <v>38.8434318</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442">
+        <v>69.3235007</v>
+      </c>
+      <c r="B442">
+        <v>41.2092354</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443">
+        <v>67.81672</v>
+      </c>
+      <c r="B443">
+        <v>40.1546</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444">
+        <v>59.59051430225373</v>
+      </c>
+      <c r="B444">
+        <v>42.46431365310686</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445">
+        <v>69.1784037</v>
+      </c>
+      <c r="B445">
+        <v>41.3486892</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446">
+        <v>67.4459585</v>
+      </c>
+      <c r="B446">
+        <v>39.6996039</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447">
+        <v>41.311081</v>
+      </c>
+      <c r="B447">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448">
+        <v>69.2977664</v>
+      </c>
+      <c r="B448">
+        <v>41.3794304</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449">
+        <v>72.3472023</v>
+      </c>
+      <c r="B449">
+        <v>40.7882345</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450">
+        <v>69.2125696</v>
+      </c>
+      <c r="B450">
+        <v>41.3171712</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451">
+        <v>69.6071609</v>
+      </c>
+      <c r="B451">
+        <v>40.845729</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452">
+        <v>71.671949</v>
+      </c>
+      <c r="B452">
+        <v>41.0002857</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453">
+        <v>66.4665639</v>
+      </c>
+      <c r="B453">
+        <v>38.8156469</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454">
+        <v>64.00136947631837</v>
+      </c>
+      <c r="B454">
+        <v>41.99956471524842</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455">
+        <v>69.191368</v>
+      </c>
+      <c r="B455">
+        <v>41.29805</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456">
+        <v>69.2953827</v>
+      </c>
+      <c r="B456">
+        <v>41.3780388</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v/>
+      </c>
+      <c r="B457" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458">
+        <v>67.27229654788972</v>
+      </c>
+      <c r="B458">
+        <v>37.226762650421875</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459">
+        <v>60.58429241093109</v>
+      </c>
+      <c r="B459">
+        <v>41.53040364013263</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460">
+        <v>39.109318</v>
+      </c>
+      <c r="B460">
+        <v>66.863962</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461">
+        <v>67.28183984756471</v>
+      </c>
+      <c r="B461">
+        <v>37.23702869830804</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462">
+        <v>41.311081</v>
+      </c>
+      <c r="B462">
+        <v>69.240562</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463">
+        <v>69.2649984</v>
+      </c>
+      <c r="B463">
+        <v>41.3073408</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B389"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B463"/>
   </ignoredErrors>
 </worksheet>
 </file>